--- a/input_files/polynomial_order_1.xlsx
+++ b/input_files/polynomial_order_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDA/TL_project_analysis/CL/input_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F3ED8-3CF2-FE46-A302-8C13ED6CC3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54493D12-2A98-8348-89BD-4B584E962D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E28A5C9A-BFFB-9140-84AB-B38FDE4F4784}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E28A5C9A-BFFB-9140-84AB-B38FDE4F4784}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
